--- a/PLSstatic_predicted_factors_matrix_5.xlsx
+++ b/PLSstatic_predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:AV6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,135 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +595,135 @@
       <c r="E2" t="n">
         <v>-1.064409281027773</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.9891351069047775</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.9247969269981553</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.870476654302486</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.8260126596397454</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.7907282771138291</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.7639634324787073</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.7450758724233263</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.7331336021386383</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.7275831485219777</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.7274269810773806</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.7329455447297683</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.743478415074564</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.7579032471695977</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.7749856788212379</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.7946497410806346</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.8176990981936183</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.8429255611979373</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.8691016356873763</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.8965297507049496</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.9239437804840388</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.9518309384337096</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.9798838019640482</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-1.008798169858852</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-1.037424429071708</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-1.066510110167387</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-1.094972131727189</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-1.122657537710913</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-1.149436778397838</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1.175202620581213</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-1.197661964683821</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1.218901927831537</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-1.238885599869176</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1.25759288548784</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1.275017452238287</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1.289859225014298</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-1.303443357989451</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-1.315801389397475</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1.326972507891425</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1.33700174611194</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-1.345938765119827</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-1.353836786378627</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-1.360751630214728</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-1.366740853587657</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +741,135 @@
       <c r="E3" t="n">
         <v>-0.9418806731868745</v>
       </c>
+      <c r="F3" t="n">
+        <v>-1.015221121858223</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1.074209915666825</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1.118422800113778</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1.150236166092075</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1.170741680800281</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-1.180996780104804</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1.182024117443528</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-1.173275872125146</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-1.155663247294721</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-1.128354647340009</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-1.0959234105856</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-1.059287218425592</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-1.017617319891978</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.9700254515710971</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.9193541117250047</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.8700671306786424</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.8207553506020713</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.7704245001915261</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.7212717287979821</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.672270618739868</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.6253727665527951</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.5807914494231358</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.5397711270371681</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.5011024897790339</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.4657454637866417</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.4327036315930278</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.4020336652486124</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.3737604930165769</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.3478825894290758</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.3231821654837406</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.3011140230426289</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.281564737317119</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.2644133167801938</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.2495304705685256</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.2363032138921096</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.2251755342675518</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.2159830681545375</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.2085647614547476</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.2027628917484287</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.1984241212606119</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.195400457666675</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.1935500416200364</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>-0.1927377687754855</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +887,135 @@
       <c r="E4" t="n">
         <v>0.5405197682741377</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.4585761208996542</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3815249906334107</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3084649724785017</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2405958143891262</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.177897356496432</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1202703781859248</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.06758902364784128</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0195020897147736</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.023860764710518</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.06237572352032464</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.09599858849164515</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.1250340068424365</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.1494530271935157</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.1688670789842036</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.1837830053053057</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.1957831551143442</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.2046655876310436</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.210012595972685</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.2128569892634642</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.2127136516195332</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.2107083461043491</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.2071455803838531</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.2030759970476829</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.1978870589627579</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.1924647719482313</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.1862340748575334</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.179334041649729</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.1719146565129133</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.1641138010931345</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.1548405481445061</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.1455401399596922</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.1363531920908396</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.1273614994960806</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.1186309370195716</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.1097363986666009</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.1012621673293931</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.09325601140533846</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.08573876336241504</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.07872222090962989</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.0722114620776102</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.06620578407120266</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.06069947991479858</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>-0.05568255543022156</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1033,135 @@
       <c r="E5" t="n">
         <v>0.4968014580407155</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.4422230534259701</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3876273087524238</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3328386245078366</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2793088689654935</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2274319486815032</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1775575663748026</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1299756940152059</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.08467954076129613</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0421131841470638</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.002597077665029958</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.03337682180500079</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.06584229016468657</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.0945990516113807</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.1191150388837322</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.1395657398117072</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.1571491065159379</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.1715822133578095</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.18239824870119</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.190497985208652</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.1953034032507334</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.1978894629183766</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.1984963580012656</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.1982053546519576</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.1963479134334291</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.1939178288271846</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.1902705935791545</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.1855913261793634</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.1800438874313124</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.1737806209949938</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.1655273718802126</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.1569996910106252</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.1482974449319191</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.1395267321023209</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.1307824245941905</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.1215599131766922</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.1126089982823052</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.1039769742469013</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.09570855241383296</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.08783945147510276</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.08039668839783794</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.07339941133308343</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.06685974356656506</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-0.06078359001946988</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -533,6 +1178,135 @@
       </c>
       <c r="E6" t="n">
         <v>-0.3927131826695586</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.3293960437102993</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.2732997977433969</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.222715430073819</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.1783496285316018</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.1395523386317237</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.1057556275777177</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.07645153192534032</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.05090073563958041</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.02893378161141188</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.01023216964681959</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.005137878557602349</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.01761046292673746</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.02746889593436175</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.03478905819337193</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.03993851811295911</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0436684091067109</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.04600837332481666</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.04693459663037321</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.04695210395121595</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.04595452174064332</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.04442910284486481</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.04249490384919429</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.04049812410351937</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.03822691731834321</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.0359660113790676</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.03353425281858859</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.03100157843570318</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.02842103680807669</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.02583646981967434</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.02304348666008391</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.02040345087211328</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.01791451422807437</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.01558380303749617</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.01341633015582192</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.01136299323059713</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.009505730708835331</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.007832048504515578</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.006333726817251292</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.005002274080812625</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.003828699270610417</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.002803637071605411</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.00191748740154087</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.001160541186275731</v>
       </c>
     </row>
   </sheetData>

--- a/PLSstatic_predicted_factors_matrix_5.xlsx
+++ b/PLSstatic_predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV6"/>
+  <dimension ref="A1:AU6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,9 +575,6 @@
       <c r="AU1" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -721,9 +718,6 @@
       <c r="AU2" t="n">
         <v>-1.360751630214728</v>
       </c>
-      <c r="AV2" t="n">
-        <v>-1.366740853587657</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -867,9 +861,6 @@
       <c r="AU3" t="n">
         <v>-0.1935500416200364</v>
       </c>
-      <c r="AV3" t="n">
-        <v>-0.1927377687754855</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1013,9 +1004,6 @@
       <c r="AU4" t="n">
         <v>-0.06069947991479858</v>
       </c>
-      <c r="AV4" t="n">
-        <v>-0.05568255543022156</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1159,9 +1147,6 @@
       <c r="AU5" t="n">
         <v>-0.06685974356656506</v>
       </c>
-      <c r="AV5" t="n">
-        <v>-0.06078359001946988</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1304,9 +1289,6 @@
       </c>
       <c r="AU6" t="n">
         <v>0.00191748740154087</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0.001160541186275731</v>
       </c>
     </row>
   </sheetData>
